--- a/examples/example_files/model_v2.3.xlsx
+++ b/examples/example_files/model_v2.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -775,10 +775,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
+    <t>negative effectors</t>
+  </si>
+  <si>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -787,40 +787,40 @@
     <t>subunits</t>
   </si>
   <si>
-    <t>mechanism_ref_type</t>
-  </si>
-  <si>
-    <t>mechanism_ref</t>
-  </si>
-  <si>
-    <t>inhibitors_ref_type</t>
-  </si>
-  <si>
-    <t>inhibitors_ref</t>
-  </si>
-  <si>
-    <t>activators_ref_type</t>
-  </si>
-  <si>
-    <t>activators_ref</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref</t>
-  </si>
-  <si>
-    <t>subunits_ref_type</t>
-  </si>
-  <si>
-    <t>subunits_ref</t>
+    <t>mechanism_refs_type</t>
+  </si>
+  <si>
+    <t>mechanism_refs</t>
+  </si>
+  <si>
+    <t>inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t>inhibitors_refs</t>
+  </si>
+  <si>
+    <t>activators_refs_type</t>
+  </si>
+  <si>
+    <t>activators_refs</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs</t>
+  </si>
+  <si>
+    <t>subunits_refs_type</t>
+  </si>
+  <si>
+    <t>subunits_refs</t>
   </si>
   <si>
     <t>comments</t>
@@ -1121,7 +1121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1147,6 +1147,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1209,11 +1217,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1222,7 +1230,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1247,7 +1263,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1377,7 +1393,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2254,7 +2270,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2981,7 +2997,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3735,8 +3751,8 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3744,41 +3760,41 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>251</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -4387,7 +4403,7 @@
       <c r="V19" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="W19" s="4" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4445,7 +4461,7 @@
       <c r="V21" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" s="4" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4477,7 +4493,7 @@
       <c r="V22" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="W22" s="4" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4602,7 +4618,7 @@
       <c r="V26" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" s="4" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4628,7 +4644,7 @@
       <c r="V27" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="W27" s="2" t="s">
+      <c r="W27" s="4" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5136,7 +5152,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13063,7 +13079,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13974,7 +13990,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14704,7 +14720,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14981,7 +14997,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15268,7 +15284,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15554,8 +15570,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J39" activeCellId="1" sqref="1:1 J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16149,7 +16165,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/examples/example_files/model_v2.3.xlsx
+++ b/examples/example_files/model_v2.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,1086 +32,1074 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="360">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>putida_v2.3</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m_glc__D_e</t>
-  </si>
-  <si>
-    <t>m_glc__D_p</t>
-  </si>
-  <si>
-    <t>m_atp_c</t>
-  </si>
-  <si>
-    <t>m_h2o_c</t>
-  </si>
-  <si>
-    <t>m_glc__D_c</t>
-  </si>
-  <si>
-    <t>m_adp_c</t>
-  </si>
-  <si>
-    <t>m_pi_c</t>
-  </si>
-  <si>
-    <t>m_g6p_c</t>
-  </si>
-  <si>
-    <t>m_glcn_p</t>
-  </si>
-  <si>
-    <t>m_glcn_c</t>
-  </si>
-  <si>
-    <t>m_6pgc_c</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_p</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_6p2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_nadh_c</t>
-  </si>
-  <si>
-    <t>m_nad_c</t>
-  </si>
-  <si>
-    <t>m_nadph_c</t>
-  </si>
-  <si>
-    <t>m_nadp_c</t>
-  </si>
-  <si>
-    <t>m_q8_c</t>
-  </si>
-  <si>
-    <t>m_q8h2_c</t>
-  </si>
-  <si>
-    <t>m_6pgl_c</t>
-  </si>
-  <si>
-    <t>m_co2_c</t>
-  </si>
-  <si>
-    <t>m_ru5p__D_c</t>
-  </si>
-  <si>
-    <t>m_r5p_c</t>
-  </si>
-  <si>
-    <t>m_xu5p__D_c</t>
-  </si>
-  <si>
-    <t>m_g3p_c</t>
-  </si>
-  <si>
-    <t>m_s7p_c</t>
-  </si>
-  <si>
-    <t>m_e4p_c</t>
-  </si>
-  <si>
-    <t>m_f6p_c</t>
-  </si>
-  <si>
-    <t>m_2ddg6p_c</t>
-  </si>
-  <si>
-    <t>m_pyr_c</t>
-  </si>
-  <si>
-    <t>m_fdp_c</t>
-  </si>
-  <si>
-    <t>m_dhap_c</t>
-  </si>
-  <si>
-    <t>m_13dpg_c</t>
-  </si>
-  <si>
-    <t>m_3pg_c</t>
-  </si>
-  <si>
-    <t>m_2pg_c</t>
-  </si>
-  <si>
-    <t>m_pep_c</t>
-  </si>
-  <si>
-    <t>m_h2o2_c</t>
-  </si>
-  <si>
-    <t>m_gthrd_c</t>
-  </si>
-  <si>
-    <t>m_gthox_c</t>
-  </si>
-  <si>
-    <t>m_pyr_e</t>
-  </si>
-  <si>
-    <t>m_pep_e</t>
-  </si>
-  <si>
-    <t>m_h2o2_e</t>
-  </si>
-  <si>
-    <t>m_g6p_e</t>
-  </si>
-  <si>
-    <t>m_6pgc_e</t>
-  </si>
-  <si>
-    <t>m_r5p_e</t>
-  </si>
-  <si>
-    <t>m_xu5p__D_e</t>
-  </si>
-  <si>
-    <t>m_g3p_e</t>
-  </si>
-  <si>
-    <t>m_e4p_e</t>
-  </si>
-  <si>
-    <t>m_f6p_e</t>
-  </si>
-  <si>
-    <t>m_3pg_e</t>
-  </si>
-  <si>
-    <t>R_GLCtex</t>
-  </si>
-  <si>
-    <t>R_GLCabcpp</t>
-  </si>
-  <si>
-    <t>R_GLK</t>
-  </si>
-  <si>
-    <t>R_GLCNt2rpp</t>
-  </si>
-  <si>
-    <t>R_GNK</t>
-  </si>
-  <si>
-    <t>R_2DHGLCNkt_tpp</t>
-  </si>
-  <si>
-    <t>R_2DHGLCK</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH_NAD</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH_NADP</t>
-  </si>
-  <si>
-    <t>R_GLCDpp</t>
-  </si>
-  <si>
-    <t>R_GAD2ktpp</t>
-  </si>
-  <si>
-    <t>R_G6PDH2</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NAD</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NADP</t>
-  </si>
-  <si>
-    <t>R_PGL</t>
-  </si>
-  <si>
-    <t>R_GND_NAD</t>
-  </si>
-  <si>
-    <t>R_GND_NADP</t>
-  </si>
-  <si>
-    <t>R_RPI</t>
-  </si>
-  <si>
-    <t>R_RPE</t>
-  </si>
-  <si>
-    <t>R_TKT1</t>
-  </si>
-  <si>
-    <t>R_TKT2</t>
-  </si>
-  <si>
-    <t>R_TALA</t>
-  </si>
-  <si>
-    <t>R_EDD</t>
-  </si>
-  <si>
-    <t>R_EDA</t>
-  </si>
-  <si>
-    <t>R_PGI</t>
-  </si>
-  <si>
-    <t>R_FBP</t>
-  </si>
-  <si>
-    <t>R_FBA</t>
-  </si>
-  <si>
-    <t>R_TPI</t>
-  </si>
-  <si>
-    <t>R_GAPD</t>
-  </si>
-  <si>
-    <t>R_PGK</t>
-  </si>
-  <si>
-    <t>R_PGM</t>
-  </si>
-  <si>
-    <t>R_ENO</t>
-  </si>
-  <si>
-    <t>R_PYK</t>
-  </si>
-  <si>
-    <t>R_GTHPi</t>
-  </si>
-  <si>
-    <t>R_GTHOr</t>
-  </si>
-  <si>
-    <t>R_AXPr</t>
-  </si>
-  <si>
-    <t>R_NADHr</t>
-  </si>
-  <si>
-    <t>R_NADPHr</t>
-  </si>
-  <si>
-    <t>R_EX_pyr</t>
-  </si>
-  <si>
-    <t>R_EX_pep</t>
-  </si>
-  <si>
-    <t>R_EX_h2o2</t>
-  </si>
-  <si>
-    <t>R_EX_g6p</t>
-  </si>
-  <si>
-    <t>R_EX_6pgc</t>
-  </si>
-  <si>
-    <t>R_EX_r5p</t>
-  </si>
-  <si>
-    <t>R_EX_xu5p__D</t>
-  </si>
-  <si>
-    <t>R_EX_g3p</t>
-  </si>
-  <si>
-    <t>R_EX_e4p</t>
-  </si>
-  <si>
-    <t>R_EX_f6p</t>
-  </si>
-  <si>
-    <t>R_EX_3pg</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>D-glucose extracellular</t>
-  </si>
-  <si>
-    <t>D-glucose periplasm</t>
-  </si>
-  <si>
-    <t>atp cytoplasm</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>D-glucose cytoplasm</t>
-  </si>
-  <si>
-    <t>adp cytoplasm</t>
-  </si>
-  <si>
-    <t>phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>alpha D-glucose 6 phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-gluconate periplasm</t>
-  </si>
-  <si>
-    <t>D-gluconate cytoplasm</t>
-  </si>
-  <si>
-    <t>6-phospho-D-gluconate cytoplasm</t>
-  </si>
-  <si>
-    <t>2-Dehydro-D-gluconate periplasm</t>
-  </si>
-  <si>
-    <t>2-Dehydro-D-gluconate cytosol</t>
-  </si>
-  <si>
-    <t>6-phospho-2-Dehydro-D-gluconate cytosol</t>
-  </si>
-  <si>
-    <t>nad cytoplasm</t>
-  </si>
-  <si>
-    <t>nadh cytoplasm</t>
-  </si>
-  <si>
-    <t>nadph cytoplasm</t>
-  </si>
-  <si>
-    <t>nadp cytoplasm</t>
-  </si>
-  <si>
-    <t>Ubiquinone-8</t>
-  </si>
-  <si>
-    <t>Ubiquinol-8</t>
-  </si>
-  <si>
-    <t>6-phospho D-glucono-1,5-lactone</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
-  </si>
-  <si>
-    <t>D-ribulose-5-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>alpha-D-ribose-5-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-xylulose-5-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-glyceraldehyde 3-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>Sedoheptulose-7-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-erythrose-4-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-fructose-6-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>pyruvate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-fructose-1,6-bisphosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>Dehydroxyacetone-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glyceroyl-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glycerate cytoplasm</t>
-  </si>
-  <si>
-    <t>2-phospho-D-glycerate cytoplasm</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate cytoplasm</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide cytoplasm</t>
-  </si>
-  <si>
-    <t>reduced glutathione</t>
-  </si>
-  <si>
-    <t>oxidized glutathione</t>
-  </si>
-  <si>
-    <t>pyruvate extracellular</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate extracellular</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide extracellular</t>
-  </si>
-  <si>
-    <t>alpha D-glucose 6 phosphate extracellular</t>
-  </si>
-  <si>
-    <t>6-phospho-D-gluconate extracellular</t>
-  </si>
-  <si>
-    <t>alpha-D-ribose-5-phosphate extracellular</t>
-  </si>
-  <si>
-    <t>D-xylulose-5-phosphate extracellular</t>
-  </si>
-  <si>
-    <t>D-glyceraldehyde 3-phosphate extracellular</t>
-  </si>
-  <si>
-    <t>D-erythrose-4-phosphate extracellular</t>
-  </si>
-  <si>
-    <t>D-fructose-6-phosphate extracellular</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glycerate extracellular</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>Glucose transport via diffusion (extracellular to periplasm)</t>
-  </si>
-  <si>
-    <t>D-glucose transport via ABC system (periplasm)</t>
-  </si>
-  <si>
-    <t>Glucokinase</t>
-  </si>
-  <si>
-    <t>D-gluconate transport via proton symport, reversible (periplasm)</t>
-  </si>
-  <si>
-    <t>Gluconokinase</t>
-  </si>
-  <si>
-    <t>Ketogluconate transporter</t>
-  </si>
-  <si>
-    <t>dehydroglucokinase</t>
-  </si>
-  <si>
-    <t>Phosphogluconate-2-dehydrogenase</t>
-  </si>
-  <si>
-    <t>Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
-  </si>
-  <si>
-    <t>Gluconate-2-dehydrogenase periplasm</t>
-  </si>
-  <si>
-    <t>Glucose-6-phosphate dehydrogenase</t>
-  </si>
-  <si>
-    <t>6-Phosphogluconolactonase</t>
-  </si>
-  <si>
-    <t>Phosphogluconate dehydrogenase</t>
-  </si>
-  <si>
-    <t>Ribose-5-phosphate isomerase</t>
-  </si>
-  <si>
-    <t>Ribulose 5-phosphate 3-epimerase</t>
-  </si>
-  <si>
-    <t>Transketolase 1</t>
-  </si>
-  <si>
-    <t>Transketolase 2</t>
-  </si>
-  <si>
-    <t>transaldolase</t>
-  </si>
-  <si>
-    <t>6-Phosphogluconate dehydratase</t>
-  </si>
-  <si>
-    <t>2-dehydro-3-deoxy-phosphogluconate aldolase</t>
-  </si>
-  <si>
-    <t>Glucose-6-phosphate-isomerase</t>
-  </si>
-  <si>
-    <t>Fructose-biphosphatase</t>
-  </si>
-  <si>
-    <t>Fructose-biphosphate-aldolase</t>
-  </si>
-  <si>
-    <t>Triose phosphate isomerase</t>
-  </si>
-  <si>
-    <t>Glyceraldehyde-3-phosphate dehydrogenase</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate kinase</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate mutase</t>
-  </si>
-  <si>
-    <t>Enolase</t>
-  </si>
-  <si>
-    <t>Pyruvate kinase</t>
-  </si>
-  <si>
-    <t>Glutathione peridoxase</t>
-  </si>
-  <si>
-    <t>Glutathione oxidoreductase</t>
-  </si>
-  <si>
-    <t>atp and adp regeneration</t>
-  </si>
-  <si>
-    <t>nad and nadh regeneration</t>
-  </si>
-  <si>
-    <t>nadp and nadph regeneration</t>
-  </si>
-  <si>
-    <t>pyruvate exchange</t>
-  </si>
-  <si>
-    <t>phosphoenlopyruvate exchange</t>
-  </si>
-  <si>
-    <t>peroxide exchange</t>
-  </si>
-  <si>
-    <t>g6p exchange</t>
-  </si>
-  <si>
-    <t>6pgc exchange</t>
-  </si>
-  <si>
-    <t>r5p exchange</t>
-  </si>
-  <si>
-    <t>xu5p__D exchange</t>
-  </si>
-  <si>
-    <t>g3p exchange</t>
-  </si>
-  <si>
-    <t>e4p exchange</t>
-  </si>
-  <si>
-    <t>f6p exchange</t>
-  </si>
-  <si>
-    <t>3pg exchange</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>equilibrator:  D-Glucose + Ubiquinone + H2O &lt;=&gt; D-Gluconate + Ubiquinol</t>
-  </si>
-  <si>
-    <t>equilibrator: D-Gluconate + Ubiquinone &lt;=&gt; 2-Keto-D-gluconic acid + Ubiquinol</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effectors</t>
-  </si>
-  <si>
-    <t>positive effectors</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>mechanism_refs_type</t>
-  </si>
-  <si>
-    <t>mechanism_refs</t>
-  </si>
-  <si>
-    <t>inhibitors_refs_type</t>
-  </si>
-  <si>
-    <t>inhibitors_refs</t>
-  </si>
-  <si>
-    <t>activators_refs_type</t>
-  </si>
-  <si>
-    <t>activators_refs</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs</t>
-  </si>
-  <si>
-    <t>subunits_refs_type</t>
-  </si>
-  <si>
-    <t>subunits_refs</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>doi</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkv1049</t>
-  </si>
-  <si>
-    <t>orderedBiTer</t>
-  </si>
-  <si>
-    <t>m_glc__D_p m_atp_c</t>
-  </si>
-  <si>
-    <t>m_adp_c m_pi_c m_glc__D_c</t>
-  </si>
-  <si>
-    <t>10.1146/annurev.biochem.73.011303.073626</t>
-  </si>
-  <si>
-    <t>randomBiBi</t>
-  </si>
-  <si>
-    <t>m_glc__D_e m_atp_c</t>
-  </si>
-  <si>
-    <t>m_adp_c m_g6p_c</t>
-  </si>
-  <si>
-    <t>10.1016/0003-9861(72)90354-2</t>
-  </si>
-  <si>
-    <t>uniUni</t>
-  </si>
-  <si>
-    <t>m_glcn_c m_atp_c</t>
-  </si>
-  <si>
-    <t>m_adp_c m_6pgc_c</t>
-  </si>
-  <si>
-    <t>PMID</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m_atp_c  m_2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_6p2dhglcn_c m_adp_c</t>
-  </si>
-  <si>
-    <t>PGLCNDH</t>
-  </si>
-  <si>
-    <t>m_nadh_c m_6p2dhglcn_c m_nadph_c m_6p2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_nad_c m_nadp_c m_6pgc_c  m_6pgc_c</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
-  </si>
-  <si>
-    <t>pingPongBiBi</t>
-  </si>
-  <si>
-    <t>m_glc__D_p m_q8_c</t>
-  </si>
-  <si>
-    <t>m_glcn_p m_q8h2_c</t>
-  </si>
-  <si>
-    <t>10.1021/ja204637d 10.1021/bi00368a031</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijbiomac.2018.06.097</t>
-  </si>
-  <si>
-    <t>m_q8_c m_glcn_p</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_p m_q8h2_c</t>
-  </si>
-  <si>
-    <t>m_nadp_c m_g6p_c</t>
-  </si>
-  <si>
-    <t>m_6pgl_c m_nadph_c</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>10.1016/0003-9861(83)90546-5</t>
-  </si>
-  <si>
-    <t>PMID PMID PMID; PMID PMID PMID</t>
-  </si>
-  <si>
-    <t>468836 4154934 7350909; 468836 4154934 7350909</t>
-  </si>
-  <si>
-    <t>PMID PMID PMID PMID</t>
-  </si>
-  <si>
-    <t>1257 468836 4154934 7350909</t>
-  </si>
-  <si>
-    <t>G6PDH2PromiscuousOrdered</t>
-  </si>
-  <si>
-    <t>m_nad_c m_g6p_c m_nadp_c m_g6p_c</t>
-  </si>
-  <si>
-    <t>m_6pgl_c m_6pgl_c m_nadh_c m_nadph_c</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NAD R_G6PDH2_NADP</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_nadh_c m_atp_c</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_nad_c m_6pgc_c m_nadp_c</t>
-  </si>
-  <si>
-    <t>m_nadh_c m_nadph_c m_ru5p__D_c m_ru5p__D_c</t>
-  </si>
-  <si>
-    <t>R_GND_NAD R_GND_NADP</t>
-  </si>
-  <si>
-    <t>link PMID</t>
-  </si>
-  <si>
-    <t>https://www.rcsb.org/structure/4x84 12517338</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gky1048</t>
-  </si>
-  <si>
-    <t>m_r5p_c m_xu5p__D_c</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_s7p_c</t>
-  </si>
-  <si>
-    <t>Link PMID</t>
-  </si>
-  <si>
-    <t>https://www.rcsb.org/structure/4XEU 17914867</t>
-  </si>
-  <si>
-    <t>m_xu5p__D_c m_e4p_c</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>m_s7p_c m_g3p_c</t>
-  </si>
-  <si>
-    <t>m_e4p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>DOI PMID</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gky1048 8805555</t>
-  </si>
-  <si>
-    <t>randomUniBi</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_pyr_c</t>
-  </si>
-  <si>
-    <t>10.1016/S1874-6047(08)60452-7</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
-  </si>
-  <si>
-    <t>orderedUniBi</t>
-  </si>
-  <si>
-    <t>m_f6p_c m_pi_c</t>
-  </si>
-  <si>
-    <t>https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
-  </si>
-  <si>
-    <t>orderedBiUni</t>
-  </si>
-  <si>
-    <t>m_dhap_c m_g3p_c</t>
-  </si>
-  <si>
-    <t>doi PMID PMID</t>
-  </si>
-  <si>
-    <t>10.1016/0006-3002(58)90242-7 10712619 2649077</t>
-  </si>
-  <si>
-    <t>10.1016/j.pep.2011.06.020</t>
-  </si>
-  <si>
-    <t>10.1007/s00018-010-0473-9</t>
-  </si>
-  <si>
-    <t>orderedTerBi</t>
-  </si>
-  <si>
-    <t>m_nad_c m_g3p_c m_pi_c</t>
-  </si>
-  <si>
-    <t>m_13dpg_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>m_adp_c m_13dpg_c</t>
-  </si>
-  <si>
-    <t>m_3pg_c m_atp_c</t>
-  </si>
-  <si>
-    <t>10.1074/jbc.275.15.11147</t>
-  </si>
-  <si>
-    <t>PMID PMID</t>
-  </si>
-  <si>
-    <t>17085493 10437801</t>
-  </si>
-  <si>
-    <t>m_adp_c m_pep_c</t>
-  </si>
-  <si>
-    <t>m_atp_c m_pyr_c</t>
-  </si>
-  <si>
-    <t>m_2ddg6p_c m_r5p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>10.1111/j.0022-3646.1992.00472.x</t>
-  </si>
-  <si>
-    <t>PMID PMID PMID</t>
-  </si>
-  <si>
-    <t>468836 468836 468836</t>
-  </si>
-  <si>
-    <t>GTHPi</t>
-  </si>
-  <si>
-    <t>m_h2o2_c m_gthrd_c m_gthrd_c</t>
-  </si>
-  <si>
-    <t>10.1016/j.bbagen.2012.09.018</t>
-  </si>
-  <si>
-    <t>doi doi</t>
-  </si>
-  <si>
-    <t>10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
-  </si>
-  <si>
-    <t>pingPongUniUniUniBi</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_gthox_c</t>
-  </si>
-  <si>
-    <t>m_nadp_c m_gthrd_c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="356">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">putida_v2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc__D_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc__D_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_h2o_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc__D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6p2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_q8_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgl_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_co2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_ru5p__D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_r5p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p__D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_s7p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_e4p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2ddg6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pyr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_fdp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_dhap_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_13dpg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_3pg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2pg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pep_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_h2o2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_gthrd_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_gthox_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pyr_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pep_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_h2o2_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g6p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_r5p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p__D_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_e4p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_f6p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_3pg_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCtex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCabcpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCNt2rpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2DHGLCNkt_tpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2DHGLCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH_NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCDpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GAD2ktpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2_NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND_NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_RPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_RPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TKT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TKT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_FBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_FBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GAPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_ENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PYK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GTHPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GTHOr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_AXPr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_NADHr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_NADPHr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_pyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_pep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_h2o2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_g6p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_6pgc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_r5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_xu5p__D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_g3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_e4p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_f6p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_3pg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atp cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adp cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha D-glucose 6 phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho-D-gluconate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Dehydro-D-gluconate periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Dehydro-D-gluconate cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho-2-Dehydro-D-gluconate cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nad cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadh cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadph cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadp cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubiquinone-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubiquinol-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho D-glucono-1,5-lactone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-ribulose-5-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-ribose-5-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-xylulose-5-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glyceraldehyde 3-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedoheptulose-7-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-erythrose-4-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-fructose-6-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-fructose-1,6-bisphosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehydroxyacetone-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glyceroyl-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glycerate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-phospho-D-glycerate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrogen peroxide cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduced glutathione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxidized glutathione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrogen peroxide extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha D-glucose 6 phosphate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho-D-gluconate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-ribose-5-phosphate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-xylulose-5-phosphate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glyceraldehyde 3-phosphate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-erythrose-4-phosphate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-fructose-6-phosphate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glycerate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transport reaction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose transport via diffusion (extracellular to periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose transport via ABC system (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate transport via proton symport, reversible (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluconokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketogluconate transporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dehydroglucokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphogluconate-2-dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluconate-2-dehydrogenase periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Phosphogluconolactonase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphogluconate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribose-5-phosphate isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribulose 5-phosphate 3-epimerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transketolase 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transketolase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transaldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Phosphogluconate dehydratase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-dehydro-3-deoxy-phosphogluconate aldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-phosphate-isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-biphosphatase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-biphosphate-aldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triose phosphate isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyceraldehyde-3-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate mutase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutathione peridoxase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutathione oxidoreductase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atp and adp regeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nad and nadh regeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadp and nadph regeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenlopyruvate exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peroxide exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g6p exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6pgc exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5p exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xu5p__D exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g3p exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4p exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6p exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3pg exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrator:  D-Glucose + Ubiquinone + H2O &lt;=&gt; D-Gluconate + Ubiquinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrator: D-Gluconate + Ubiquinone &lt;=&gt; 2-Keto-D-gluconic acid + Ubiquinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction/enzyme ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkv1049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiTer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc__D_p m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_pi_c m_glc__D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1146/annurev.biochem.73.011303.073626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc__D_e m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/0003-9861(72)90354-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_c m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_6pgc_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_atp_c  m_2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6p2dhglcn_c m_adp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGLCNDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadh_c m_6p2dhglcn_c m_nadph_c m_6p2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c m_nadp_c m_6pgc_c  m_6pgc_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingPongBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc__D_p m_q8_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_p m_q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/ja204637d 10.1021/bi00368a031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ijbiomac.2018.06.097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_q8_c m_glcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_p m_q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgl_c m_nadph_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/0003-9861(83)90546-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID PMID PMID; PMID PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468836 4154934 7350909; 468836 4154934 7350909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID PMID PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1257 468836 4154934 7350909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6PDH2PromiscuousOrdered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c m_g6p_c m_nadp_c m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgl_c m_6pgl_c m_nadh_c m_nadph_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2_NAD R_G6PDH2_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c m_nadh_c m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c m_nad_c m_6pgc_c m_nadp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadh_c m_nadph_c m_ru5p__D_c m_ru5p__D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND_NAD R_GND_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rcsb.org/structure/4x84 12517338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gky1048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_r5p_c m_xu5p__D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c m_s7p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rcsb.org/structure/4XEU 17914867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p__D_c m_e4p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_s7p_c m_g3p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_e4p_c m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gky1048 8805555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c m_pyr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/S1874-6047(08)60452-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_f6p_c m_pi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_dhap_c m_g3p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/0006-3002(58)90242-7 10712619 2649077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.pep.2011.06.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007/s00018-010-0473-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedTerBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c m_g3p_c m_pi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_13dpg_c m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_13dpg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_3pg_c m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1074/jbc.275.15.11147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17085493 10437801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_pep_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_atp_c m_pyr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2ddg6p_c m_r5p_c m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/j.0022-3646.1992.00472.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468836 468836 468836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTHPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_h2o2_c m_gthrd_c m_gthrd_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi doi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingPongUniUniUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c m_gthox_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c m_gthrd_c</t>
   </si>
 </sst>
 </file>
@@ -1119,9 +1107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1147,14 +1135,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1217,11 +1197,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1230,15 +1210,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1262,13 +1234,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,7 +1349,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1392,30 +1364,30 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2226,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2269,27 +2241,27 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,7 +2953,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2996,27 +2968,27 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,7 +3708,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3751,87 +3723,87 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,7 +3811,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -3848,10 +3820,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,13 +3831,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -3874,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,13 +3857,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -3900,10 +3872,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,7 +3883,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>26</v>
@@ -3931,13 +3903,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>57</v>
@@ -3949,13 +3921,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M6" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>274</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>278</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>5470828</v>
@@ -3966,7 +3938,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>29</v>
@@ -3986,13 +3958,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -4006,16 +3978,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -4029,16 +4001,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -4052,31 +4024,31 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="W11" s="0" t="s">
         <v>286</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,13 +4056,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -4104,16 +4076,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>25</v>
@@ -4125,31 +4097,31 @@
         <v>2</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M13" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="S13" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="N13" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>300</v>
-      </c>
       <c r="T13" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>6815421</v>
@@ -4160,19 +4132,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>25</v>
@@ -4184,31 +4156,31 @@
         <v>2</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M14" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="S14" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="N14" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>300</v>
-      </c>
       <c r="T14" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>6815421</v>
@@ -4219,19 +4191,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>25</v>
@@ -4243,31 +4215,31 @@
         <v>2</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M15" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="S15" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="N15" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>300</v>
-      </c>
       <c r="T15" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>6815421</v>
@@ -4278,7 +4250,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>38</v>
@@ -4298,16 +4270,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -4319,19 +4291,19 @@
         <v>2</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>19686854</v>
@@ -4342,16 +4314,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>34</v>
@@ -4363,19 +4335,19 @@
         <v>2</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>19686854</v>
@@ -4386,7 +4358,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>40</v>
@@ -4401,10 +4373,10 @@
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,7 +4384,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>40</v>
@@ -4427,10 +4399,10 @@
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,13 +4410,13 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -4453,16 +4425,16 @@
         <v>2</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,13 +4442,13 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -4485,16 +4457,16 @@
         <v>2</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,13 +4474,13 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
@@ -4517,16 +4489,16 @@
         <v>2</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +4506,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>28</v>
@@ -4552,13 +4524,13 @@
         <v>2</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>6326623</v>
@@ -4569,13 +4541,13 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -4584,13 +4556,13 @@
         <v>3</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W25" s="0" t="n">
         <v>12876349</v>
@@ -4601,7 +4573,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>25</v>
@@ -4616,10 +4588,10 @@
         <v>2</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,13 +4599,13 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -4642,10 +4614,10 @@
         <v>4</v>
       </c>
       <c r="V27" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="W27" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,10 +4625,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>49</v>
@@ -4668,16 +4640,16 @@
         <v>4</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,7 +4657,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>43</v>
@@ -4700,10 +4672,10 @@
         <v>2</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,13 +4683,13 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>55</v>
@@ -4729,13 +4701,13 @@
         <v>4</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>8636984</v>
@@ -4746,13 +4718,13 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -4761,16 +4733,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,7 +4750,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>52</v>
@@ -4793,10 +4765,10 @@
         <v>1</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4804,7 +4776,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>53</v>
@@ -4819,7 +4791,7 @@
         <v>2</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>9376357</v>
@@ -4830,16 +4802,16 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>1</v>
@@ -4848,19 +4820,19 @@
         <v>4</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>468836</v>
@@ -4871,10 +4843,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>57</v>
@@ -4886,16 +4858,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,13 +4875,13 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -4918,16 +4890,16 @@
         <v>1</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,7 +4907,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4949,7 +4921,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4963,7 +4935,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4977,7 +4949,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4991,7 +4963,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -5005,7 +4977,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -5019,7 +4991,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -5033,7 +5005,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -5047,7 +5019,7 @@
         <v>112</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -5061,7 +5033,7 @@
         <v>113</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -5075,7 +5047,7 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -5089,7 +5061,7 @@
         <v>115</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -5103,7 +5075,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -5117,7 +5089,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -5136,7 +5108,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5151,13 +5123,13 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13063,7 +13035,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13076,18 +13048,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -13102,6 +13074,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13109,7 +13084,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -13118,6 +13093,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13126,7 +13104,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -13136,6 +13114,9 @@
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13143,7 +13124,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -13153,6 +13134,9 @@
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13160,7 +13144,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -13169,6 +13153,9 @@
         <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13177,7 +13164,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -13187,6 +13174,9 @@
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13194,7 +13184,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -13204,6 +13194,9 @@
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13211,7 +13204,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -13220,6 +13213,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13228,7 +13224,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -13238,6 +13234,9 @@
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13245,7 +13244,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -13255,6 +13254,9 @@
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13262,7 +13264,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -13272,6 +13274,9 @@
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13279,7 +13284,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -13288,6 +13293,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13296,7 +13304,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -13305,6 +13313,9 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13313,7 +13324,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -13322,6 +13333,9 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13330,7 +13344,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -13339,6 +13353,9 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13347,7 +13364,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -13356,6 +13373,9 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13364,7 +13384,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -13373,6 +13393,9 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13381,7 +13404,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -13390,6 +13413,9 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13398,7 +13424,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -13407,6 +13433,9 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13415,7 +13444,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -13425,6 +13454,9 @@
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13432,7 +13464,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -13442,6 +13474,9 @@
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13449,7 +13484,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -13458,6 +13493,9 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13466,7 +13504,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -13476,6 +13514,9 @@
       </c>
       <c r="E23" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13483,7 +13524,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -13492,6 +13533,9 @@
         <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13500,7 +13544,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -13509,6 +13553,9 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13517,7 +13564,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -13526,6 +13573,9 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13534,7 +13584,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -13543,6 +13593,9 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13551,7 +13604,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -13560,6 +13613,9 @@
         <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13568,7 +13624,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -13577,6 +13633,9 @@
         <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13585,7 +13644,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -13594,6 +13653,9 @@
         <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13602,7 +13664,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -13611,6 +13673,9 @@
         <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13619,7 +13684,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -13628,6 +13693,9 @@
         <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13636,7 +13704,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -13645,6 +13713,9 @@
         <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13653,7 +13724,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -13662,6 +13733,9 @@
         <v>1</v>
       </c>
       <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13670,7 +13744,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -13679,6 +13753,9 @@
         <v>1</v>
       </c>
       <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13687,7 +13764,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -13696,6 +13773,9 @@
         <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13704,7 +13784,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -13713,6 +13793,9 @@
         <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13721,7 +13804,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -13730,6 +13813,9 @@
         <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13738,7 +13824,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -13747,6 +13833,9 @@
         <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13755,7 +13844,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -13764,6 +13853,9 @@
         <v>1</v>
       </c>
       <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13772,7 +13864,7 @@
         <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -13781,6 +13873,9 @@
         <v>1</v>
       </c>
       <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13789,7 +13884,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13799,6 +13894,9 @@
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13806,7 +13904,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -13816,6 +13914,9 @@
       </c>
       <c r="E43" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13823,7 +13924,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -13833,6 +13934,9 @@
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13840,7 +13944,7 @@
         <v>61</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -13850,6 +13954,9 @@
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13857,7 +13964,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -13867,6 +13974,9 @@
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13874,7 +13984,7 @@
         <v>63</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -13884,6 +13994,9 @@
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13891,7 +14004,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -13901,6 +14014,9 @@
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13908,7 +14024,7 @@
         <v>65</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -13918,6 +14034,9 @@
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13925,7 +14044,7 @@
         <v>66</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -13935,6 +14054,9 @@
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13942,7 +14064,7 @@
         <v>67</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -13952,6 +14074,9 @@
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13959,7 +14084,7 @@
         <v>68</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -13970,11 +14095,15 @@
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13989,30 +14118,30 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14020,7 +14149,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -14034,7 +14163,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -14048,7 +14177,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -14062,7 +14191,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -14076,7 +14205,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -14090,7 +14219,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -14104,7 +14233,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -14118,7 +14247,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -14132,7 +14261,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -14146,7 +14275,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -14160,7 +14289,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -14174,7 +14303,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -14188,7 +14317,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -14202,7 +14331,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -14216,7 +14345,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -14230,7 +14359,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -14244,7 +14373,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -14258,7 +14387,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -14272,7 +14401,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -14286,7 +14415,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -14300,7 +14429,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -14314,7 +14443,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -14328,7 +14457,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -14342,7 +14471,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -14356,7 +14485,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -14370,7 +14499,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -14384,7 +14513,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -14398,7 +14527,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -14412,7 +14541,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -14426,7 +14555,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -14440,7 +14569,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -14454,7 +14583,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -14468,7 +14597,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -14482,7 +14611,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -14496,7 +14625,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -14510,7 +14639,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -14524,7 +14653,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -14538,7 +14667,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -14552,7 +14681,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -14566,7 +14695,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -14580,7 +14709,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -14594,7 +14723,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -14608,7 +14737,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -14622,7 +14751,7 @@
         <v>112</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -14636,7 +14765,7 @@
         <v>113</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -14650,7 +14779,7 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -14664,7 +14793,7 @@
         <v>115</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -14678,7 +14807,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -14692,7 +14821,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -14704,7 +14833,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14719,18 +14848,18 @@
   </sheetPr>
   <dimension ref="A2:A51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14981,7 +15110,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14996,18 +15125,18 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15268,7 +15397,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15283,18 +15412,18 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15555,7 +15684,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15570,18 +15699,18 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J39" activeCellId="1" sqref="1:1 J39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>225</v>
@@ -16149,7 +16278,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16164,18 +16293,18 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>229</v>
@@ -16748,7 +16877,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/examples/example_files/model_v2.3.xlsx
+++ b/examples/example_files/model_v2.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="358">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -731,6 +731,12 @@
   </si>
   <si>
     <t xml:space="preserve">vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean2 (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std2 (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">reaction/enzyme ID</t>
@@ -1364,8 +1370,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1384,10 +1390,10 @@
         <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,16 +2258,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,13 +2988,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,73 +3743,73 @@
         <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,7 +3817,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -3820,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,25 +3837,25 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>261</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,13 +3863,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -3872,10 +3878,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,7 +3889,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>26</v>
@@ -3903,13 +3909,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>57</v>
@@ -3921,13 +3927,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>5470828</v>
@@ -3938,7 +3944,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>29</v>
@@ -3958,13 +3964,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -3978,16 +3984,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -4001,16 +4007,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -4024,13 +4030,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -4039,16 +4045,16 @@
         <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,13 +4062,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -4076,16 +4082,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>25</v>
@@ -4097,31 +4103,31 @@
         <v>2</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>6815421</v>
@@ -4132,19 +4138,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>25</v>
@@ -4156,31 +4162,31 @@
         <v>2</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>6815421</v>
@@ -4191,19 +4197,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>25</v>
@@ -4215,31 +4221,31 @@
         <v>2</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>6815421</v>
@@ -4250,7 +4256,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>38</v>
@@ -4270,16 +4276,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -4291,19 +4297,19 @@
         <v>2</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>19686854</v>
@@ -4314,16 +4320,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>34</v>
@@ -4335,19 +4341,19 @@
         <v>2</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>19686854</v>
@@ -4358,7 +4364,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>40</v>
@@ -4373,10 +4379,10 @@
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,7 +4390,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>40</v>
@@ -4399,10 +4405,10 @@
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,13 +4416,13 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -4425,16 +4431,16 @@
         <v>2</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,13 +4448,13 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -4457,16 +4463,16 @@
         <v>2</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,13 +4480,13 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
@@ -4489,16 +4495,16 @@
         <v>2</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,7 +4512,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>28</v>
@@ -4524,13 +4530,13 @@
         <v>2</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>6326623</v>
@@ -4541,13 +4547,13 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -4556,13 +4562,13 @@
         <v>3</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W25" s="0" t="n">
         <v>12876349</v>
@@ -4573,7 +4579,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>25</v>
@@ -4588,10 +4594,10 @@
         <v>2</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,13 +4605,13 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -4614,10 +4620,10 @@
         <v>4</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,10 +4631,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>49</v>
@@ -4640,16 +4646,16 @@
         <v>4</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,7 +4663,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>43</v>
@@ -4672,10 +4678,10 @@
         <v>2</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,13 +4689,13 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>55</v>
@@ -4701,13 +4707,13 @@
         <v>4</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>8636984</v>
@@ -4718,13 +4724,13 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -4733,16 +4739,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,7 +4756,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>52</v>
@@ -4765,10 +4771,10 @@
         <v>1</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4782,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>53</v>
@@ -4791,7 +4797,7 @@
         <v>2</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>9376357</v>
@@ -4802,16 +4808,16 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>1</v>
@@ -4820,19 +4826,19 @@
         <v>4</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>468836</v>
@@ -4843,10 +4849,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>57</v>
@@ -4858,16 +4864,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,13 +4881,13 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -4890,16 +4896,16 @@
         <v>1</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4907,7 +4913,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4921,7 +4927,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4935,7 +4941,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4949,7 +4955,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4963,7 +4969,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -4977,7 +4983,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -4991,7 +4997,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -5005,7 +5011,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -5019,7 +5025,7 @@
         <v>112</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -5033,7 +5039,7 @@
         <v>113</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -5047,7 +5053,7 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -5061,7 +5067,7 @@
         <v>115</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -5075,7 +5081,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -5089,7 +5095,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -16293,7 +16299,7 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
